--- a/中文手册/参数及名词说明/HotDB Server&管理平台参数说明列表_2.5.6.xlsx
+++ b/中文手册/参数及名词说明/HotDB Server&管理平台参数说明列表_2.5.6.xlsx
@@ -11,14 +11,14 @@
     <sheet name="管理平台参数" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Server参数!$A$1:$L$146</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Server参数!$A$1:$L$147</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1632" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1652" uniqueCount="650">
   <si>
     <t>序号</t>
   </si>
@@ -475,11 +475,11 @@
   </si>
   <si>
     <t>2.5.6以下版本：计算节点高可用模式下对应的当前主计算节点连接信息
-2.5.6及以上版本：计算节点高可用模式下需配置当前主计算节点管理端口连接信息；集群模式下，当计算节点在同一台服务器上时，可配置所有成员的集群通信端口连接信息</t>
+2.5.6及以上版本：计算节点高可用模式下需配置当前主计算节点管理端口连接信息；集群模式下，需配置所有成员的集群通信端口连接信息</t>
   </si>
   <si>
     <t>2.5.6以下版本：计算节点高可用模式下对应的当前主计算节点连接信息，配置格式为IP:PORT，例：192.168.200.1:3325（集群模式下，此项无效）
-2.5.6及以下版本：计算节点高可用模式下对应的当前主计算节点连接信息，配置格式为IP:PORT，例：192.168.200.1:3325；集群模式下，当集群内计算节点在同一台服务器上时，可配置所有成员的集群通信信息，例：192.168.200.1:3326;192.168.200.1:3327;192.168.200.1:3328，否则无需关注</t>
+2.5.6及以上版本：计算节点高可用模式下对应的当前主计算节点管理端口连接信息，配置格式为IP:PORT，例：192.168.200.1:3325；集群模式下，只有当集群内所有计算节点在同一网段且集群端口相同时，可以不配置该参数，否则必须配置所有成员的集群通信信息，例：192.168.220.1:3326,192.168.200.1:3327,192.168.200.1:3328</t>
   </si>
   <si>
     <t>VIP</t>
@@ -2095,7 +2095,7 @@
     <t>获取元数据锁的超时时间，元数据锁超过设置值，前端返回锁超时，单位秒</t>
   </si>
   <si>
-    <t>3153600（s）</t>
+    <t>31536000（s）</t>
   </si>
   <si>
     <t>基于V2.5.3版本同步</t>
@@ -2123,6 +2123,31 @@
   </si>
   <si>
     <t>基于V2.5.5版本同步</t>
+  </si>
+  <si>
+    <t>crossDbXa</t>
+  </si>
+  <si>
+    <t>跨逻辑库是否采用XA事务</t>
+  </si>
+  <si>
+    <t>开启enableXA时，如果存在跨逻辑库查询的XA事务，需要开启crossDbXa才能保证强一致性。当crossDbXa未开启时也可以支持，但不能保证数据的强一致</t>
+  </si>
+  <si>
+    <t>管理平台暂未兼容</t>
+  </si>
+  <si>
+    <t>unusualSQLMode</t>
+  </si>
+  <si>
+    <t>控制unusualSQL输出日志的频率</t>
+  </si>
+  <si>
+    <t>控制unusualSQL输出日志的频率,：配置为0，记录
+所有计数器，第一次出现时输出日志；配置为1，记录所有SQL；配置为&gt;1，记录所有计数器，计数器每满N时输出日志</t>
+  </si>
+  <si>
+    <t>2.5.5版本中途新增</t>
   </si>
   <si>
     <t>参数值</t>
@@ -2337,9 +2362,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -2420,21 +2445,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2449,9 +2476,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2462,11 +2497,49 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2487,29 +2560,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -2523,41 +2573,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2596,13 +2621,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2620,7 +2693,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2632,7 +2705,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2644,13 +2765,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2662,91 +2783,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2758,25 +2801,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2805,21 +2830,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2831,6 +2841,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2861,33 +2889,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2902,6 +2903,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2910,10 +2935,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2922,137 +2947,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3196,6 +3221,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -3653,12 +3681,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L146"/>
+  <dimension ref="A1:L148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A145" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H160" sqref="H160"/>
+      <selection pane="bottomLeft" activeCell="F154" sqref="F154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -4882,7 +4910,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="34" ht="165" spans="1:12">
+    <row r="34" ht="148.5" spans="1:12">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -8872,7 +8900,7 @@
       <c r="K141" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="L141" s="48"/>
+      <c r="L141" s="49"/>
     </row>
     <row r="142" ht="363" spans="1:12">
       <c r="A142" s="7">
@@ -8908,7 +8936,7 @@
       <c r="K142" s="7" t="s">
         <v>557</v>
       </c>
-      <c r="L142" s="49" t="s">
+      <c r="L142" s="50" t="s">
         <v>558</v>
       </c>
     </row>
@@ -8946,7 +8974,7 @@
       <c r="K143" s="7" t="s">
         <v>557</v>
       </c>
-      <c r="L143" s="49"/>
+      <c r="L143" s="50"/>
     </row>
     <row r="144" ht="33" spans="1:12">
       <c r="A144" s="7">
@@ -8982,7 +9010,7 @@
       <c r="K144" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="L144" s="49" t="s">
+      <c r="L144" s="50" t="s">
         <v>566</v>
       </c>
     </row>
@@ -9058,82 +9086,822 @@
       <c r="K146" s="28" t="s">
         <v>557</v>
       </c>
-      <c r="L146" s="7" t="s">
+      <c r="L146" s="47" t="s">
         <v>574</v>
       </c>
     </row>
+    <row r="147" ht="49.5" spans="1:12">
+      <c r="A147" s="7">
+        <v>146</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="D147" s="8" t="s">
+        <v>576</v>
+      </c>
+      <c r="E147" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F147" s="8" t="s">
+        <v>577</v>
+      </c>
+      <c r="G147" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="H147" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I147" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J147" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="K147" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="L147" s="47" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="148" ht="49.5" spans="1:12">
+      <c r="A148" s="7">
+        <v>147</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="C148" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="D148" s="8" t="s">
+        <v>580</v>
+      </c>
+      <c r="E148" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F148" s="8" t="s">
+        <v>581</v>
+      </c>
+      <c r="G148" s="48">
+        <v>1</v>
+      </c>
+      <c r="H148" s="47">
+        <v>0</v>
+      </c>
+      <c r="I148" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J148" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="K148" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="L148" s="8" t="s">
+        <v>582</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:L146">
+  <autoFilter ref="A1:L147">
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="J25">
-    <cfRule type="cellIs" dxfId="0" priority="208" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="209" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="210" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="222" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="223" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="224" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26">
-    <cfRule type="cellIs" dxfId="0" priority="205" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="206" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="207" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="219" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="220" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="221" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27">
-    <cfRule type="cellIs" dxfId="0" priority="202" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="203" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="204" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="216" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="217" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="218" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28">
-    <cfRule type="cellIs" dxfId="0" priority="172" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="173" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="186" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="187" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="188" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J30">
-    <cfRule type="cellIs" dxfId="0" priority="375" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="376" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="377" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="389" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="390" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="391" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="3" priority="133" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="134" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="135" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="136" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="147" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="148" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="149" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="150" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="151" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="152" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="153" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="154" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="158" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="159" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="160" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="161" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="162" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="163" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="164" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="165" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="169" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="170" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="171" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="172" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J31">
+    <cfRule type="cellIs" dxfId="0" priority="144" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="145" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="146" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="155" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="156" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="157" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="166" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="167" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="168" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="cellIs" dxfId="3" priority="76" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="77" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="78" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="79" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="80" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="81" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="82" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="83" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="87" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="88" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="89" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="90" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="91" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="92" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="93" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="94" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="98" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="99" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="100" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="101" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J32">
+    <cfRule type="cellIs" dxfId="0" priority="73" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="74" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="75" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="84" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="85" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="86" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="95" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="96" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="97" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="cellIs" dxfId="3" priority="696" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="697" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="698" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="699" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J36">
+    <cfRule type="cellIs" dxfId="0" priority="700" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="701" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="702" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J37">
+    <cfRule type="cellIs" dxfId="0" priority="666" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="667" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="668" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
+    <cfRule type="cellIs" dxfId="3" priority="648" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="649" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="650" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="651" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J46">
+    <cfRule type="cellIs" dxfId="0" priority="652" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="653" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="654" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J47">
+    <cfRule type="cellIs" dxfId="0" priority="213" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="214" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="215" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J48">
+    <cfRule type="cellIs" dxfId="0" priority="210" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="211" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="212" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50">
+    <cfRule type="cellIs" dxfId="3" priority="176" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="177" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="178" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="179" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J50">
+    <cfRule type="cellIs" dxfId="0" priority="173" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="174" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="175" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51">
+    <cfRule type="cellIs" dxfId="3" priority="526" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="527" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="528" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="529" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J51">
+    <cfRule type="cellIs" dxfId="0" priority="530" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="531" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="532" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="cellIs" dxfId="3" priority="585" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="586" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="587" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="588" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J52">
+    <cfRule type="cellIs" dxfId="0" priority="589" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="590" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="591" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="cellIs" dxfId="3" priority="498" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="499" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="500" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="501" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J53">
+    <cfRule type="cellIs" dxfId="0" priority="502" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="503" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="504" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="cellIs" dxfId="3" priority="620" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="621" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="622" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="623" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J56">
+    <cfRule type="cellIs" dxfId="0" priority="624" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="625" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="626" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="cellIs" dxfId="3" priority="613" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="614" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="615" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="616" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J57">
+    <cfRule type="cellIs" dxfId="0" priority="617" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="618" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="619" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="cellIs" dxfId="3" priority="606" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="607" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="608" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="609" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J58">
+    <cfRule type="cellIs" dxfId="0" priority="610" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="611" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="612" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59">
+    <cfRule type="cellIs" dxfId="3" priority="599" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="600" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="601" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="602" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J59">
+    <cfRule type="cellIs" dxfId="0" priority="603" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="604" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="605" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="cellIs" dxfId="3" priority="578" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="579" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="580" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="581" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J60">
+    <cfRule type="cellIs" dxfId="0" priority="582" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="583" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="584" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J66">
+    <cfRule type="cellIs" dxfId="0" priority="565" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="566" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="567" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="cellIs" dxfId="3" priority="547" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="548" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="549" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="550" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J75">
+    <cfRule type="cellIs" dxfId="0" priority="551" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="552" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="553" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="cellIs" dxfId="3" priority="519" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="520" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="521" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="522" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J76">
+    <cfRule type="cellIs" dxfId="0" priority="523" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="524" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="525" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E77">
+    <cfRule type="cellIs" dxfId="3" priority="512" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="513" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="514" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="515" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J77">
+    <cfRule type="cellIs" dxfId="0" priority="516" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="517" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="518" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E78">
+    <cfRule type="cellIs" dxfId="3" priority="505" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="506" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="507" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="508" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J78">
+    <cfRule type="cellIs" dxfId="0" priority="509" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="510" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="511" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E79">
+    <cfRule type="cellIs" dxfId="3" priority="491" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="492" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="493" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="494" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J79">
+    <cfRule type="cellIs" dxfId="0" priority="180" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="181" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="182" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80">
+    <cfRule type="cellIs" dxfId="3" priority="484" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="485" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="486" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="487" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J80">
+    <cfRule type="cellIs" dxfId="0" priority="488" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="489" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="490" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81">
+    <cfRule type="cellIs" dxfId="3" priority="109" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="110" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="111" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="112" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J81">
+    <cfRule type="cellIs" dxfId="0" priority="481" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="482" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="483" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E82">
     <cfRule type="cellIs" dxfId="3" priority="137" operator="equal">
       <formula>"N"</formula>
     </cfRule>
@@ -9146,53 +9914,8 @@
     <cfRule type="cellIs" dxfId="3" priority="140" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="144" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="145" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="146" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="147" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="148" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="149" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="150" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="151" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="155" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="156" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="157" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="158" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J31">
-    <cfRule type="cellIs" dxfId="0" priority="130" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="131" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="132" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J82">
     <cfRule type="cellIs" dxfId="0" priority="141" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -9202,17 +9925,871 @@
     <cfRule type="cellIs" dxfId="2" priority="143" operator="equal">
       <formula>"N"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="152" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="153" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="154" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E32">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83">
+    <cfRule type="cellIs" dxfId="3" priority="66" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="67" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="68" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="69" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J83">
+    <cfRule type="cellIs" dxfId="0" priority="70" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="71" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="72" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E84">
+    <cfRule type="cellIs" dxfId="3" priority="407" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="408" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="409" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="410" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J84">
+    <cfRule type="cellIs" dxfId="0" priority="411" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="412" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="413" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85">
+    <cfRule type="cellIs" dxfId="3" priority="294" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="295" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="296" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="297" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J85">
+    <cfRule type="cellIs" dxfId="0" priority="189" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="190" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="191" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E86">
+    <cfRule type="cellIs" dxfId="3" priority="253" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="254" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="255" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="256" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J86">
+    <cfRule type="cellIs" dxfId="0" priority="257" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="258" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="259" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87">
+    <cfRule type="cellIs" dxfId="3" priority="470" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="471" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="472" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="473" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J87">
+    <cfRule type="cellIs" dxfId="0" priority="474" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="475" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="476" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E88">
+    <cfRule type="cellIs" dxfId="3" priority="463" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="464" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="465" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="466" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J88">
+    <cfRule type="cellIs" dxfId="0" priority="467" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="468" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="469" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E89">
+    <cfRule type="cellIs" dxfId="3" priority="456" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="457" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="458" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="459" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J89">
+    <cfRule type="cellIs" dxfId="0" priority="460" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="461" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="462" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E90">
+    <cfRule type="cellIs" dxfId="3" priority="449" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="450" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="451" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="452" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J90">
+    <cfRule type="cellIs" dxfId="0" priority="453" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="454" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="455" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E91">
+    <cfRule type="cellIs" dxfId="3" priority="442" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="443" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="444" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="445" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J91">
+    <cfRule type="cellIs" dxfId="0" priority="446" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="447" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="448" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E92">
+    <cfRule type="cellIs" dxfId="3" priority="435" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="436" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="437" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="438" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J92">
+    <cfRule type="cellIs" dxfId="0" priority="439" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="440" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="441" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E94">
+    <cfRule type="cellIs" dxfId="3" priority="533" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="534" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="535" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="536" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J94">
+    <cfRule type="cellIs" dxfId="0" priority="537" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="538" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="539" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E95">
+    <cfRule type="cellIs" dxfId="3" priority="540" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="541" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="542" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="543" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J95">
+    <cfRule type="cellIs" dxfId="0" priority="544" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="545" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="546" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E96">
+    <cfRule type="cellIs" dxfId="3" priority="421" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="422" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="423" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="424" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J96">
+    <cfRule type="cellIs" dxfId="0" priority="198" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="199" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="200" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E97">
+    <cfRule type="cellIs" dxfId="3" priority="400" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="401" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="402" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="403" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J97">
+    <cfRule type="cellIs" dxfId="0" priority="404" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="405" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="406" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J98">
+    <cfRule type="cellIs" dxfId="0" priority="354" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="355" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="356" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E99">
+    <cfRule type="cellIs" dxfId="3" priority="301" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="302" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="303" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="304" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J99">
+    <cfRule type="cellIs" dxfId="0" priority="192" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="193" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="194" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E100">
+    <cfRule type="cellIs" dxfId="3" priority="102" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="103" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="104" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="105" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J100">
+    <cfRule type="cellIs" dxfId="0" priority="106" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="107" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="108" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E102">
+    <cfRule type="cellIs" dxfId="3" priority="364" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="365" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="366" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="367" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J102">
+    <cfRule type="cellIs" dxfId="0" priority="204" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="205" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="206" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E103">
+    <cfRule type="cellIs" dxfId="3" priority="239" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="240" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="241" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="242" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J103">
+    <cfRule type="cellIs" dxfId="0" priority="243" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="244" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="245" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E105">
+    <cfRule type="cellIs" dxfId="3" priority="246" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="247" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="248" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="249" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J105">
+    <cfRule type="cellIs" dxfId="0" priority="250" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="251" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="252" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E106">
+    <cfRule type="cellIs" dxfId="3" priority="260" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="261" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="262" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="263" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J106">
+    <cfRule type="cellIs" dxfId="0" priority="264" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="265" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="266" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E107">
+    <cfRule type="cellIs" dxfId="3" priority="378" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="379" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="380" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="381" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J107">
+    <cfRule type="cellIs" dxfId="0" priority="382" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="383" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="384" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E108">
+    <cfRule type="cellIs" dxfId="3" priority="315" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="316" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="317" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="318" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J108">
+    <cfRule type="cellIs" dxfId="0" priority="319" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="320" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="321" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E109">
+    <cfRule type="cellIs" dxfId="3" priority="357" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="358" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="359" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="360" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J109">
+    <cfRule type="cellIs" dxfId="0" priority="201" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="202" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="203" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E110">
+    <cfRule type="cellIs" dxfId="3" priority="371" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="372" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="373" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="374" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J110">
+    <cfRule type="cellIs" dxfId="0" priority="207" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="208" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="209" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E111">
+    <cfRule type="cellIs" dxfId="3" priority="392" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="393" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="395" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="396" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F111">
+    <cfRule type="cellIs" dxfId="4" priority="394" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J111">
+    <cfRule type="cellIs" dxfId="0" priority="397" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="398" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="399" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E113">
+    <cfRule type="cellIs" dxfId="3" priority="336" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="337" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="338" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="339" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J113">
+    <cfRule type="cellIs" dxfId="0" priority="340" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="341" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="342" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E119">
+    <cfRule type="cellIs" dxfId="3" priority="322" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="323" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="324" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="325" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J119">
+    <cfRule type="cellIs" dxfId="0" priority="326" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="327" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="328" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E123">
+    <cfRule type="cellIs" dxfId="3" priority="126" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="127" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="128" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="129" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J123">
+    <cfRule type="cellIs" dxfId="0" priority="113" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="114" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="115" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J124">
+    <cfRule type="cellIs" dxfId="0" priority="123" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="124" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="125" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J125">
+    <cfRule type="cellIs" dxfId="0" priority="120" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="121" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="122" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E145">
+    <cfRule type="cellIs" dxfId="3" priority="47" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="48" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="49" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="50" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J145">
+    <cfRule type="cellIs" dxfId="0" priority="44" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="45" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="46" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D146">
+    <cfRule type="cellIs" dxfId="3" priority="25" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="26" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="27" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="28" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E146">
+    <cfRule type="cellIs" dxfId="3" priority="18" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="19" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="20" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="21" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I146">
+    <cfRule type="cellIs" dxfId="0" priority="22" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="23" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="24" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J146">
+    <cfRule type="cellIs" dxfId="0" priority="15" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="16" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="17" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E147">
+    <cfRule type="cellIs" dxfId="3" priority="11" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="10" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="9" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J147">
+    <cfRule type="cellIs" dxfId="2" priority="14" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="13" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="12" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E148">
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J148">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D142:D144">
     <cfRule type="cellIs" dxfId="3" priority="62" operator="equal">
       <formula>"N"</formula>
     </cfRule>
@@ -9225,121 +10802,392 @@
     <cfRule type="cellIs" dxfId="3" priority="65" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="66" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="67" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="68" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="69" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="73" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="74" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="75" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="76" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="77" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="78" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="79" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="80" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="84" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="85" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="86" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="87" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J32">
-    <cfRule type="cellIs" dxfId="0" priority="59" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="60" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="61" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="70" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="71" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="72" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="81" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="82" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="83" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19:E22">
+    <cfRule type="cellIs" dxfId="3" priority="679" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="680" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="681" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="682" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="683" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="684" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="685" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J36">
-    <cfRule type="cellIs" dxfId="0" priority="686" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="687" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="688" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J37">
-    <cfRule type="cellIs" dxfId="0" priority="652" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="653" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="654" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23:E30">
+    <cfRule type="cellIs" dxfId="3" priority="627" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="628" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="629" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="630" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25:E30">
+    <cfRule type="cellIs" dxfId="3" priority="717" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="718" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="719" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="720" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28:E30">
+    <cfRule type="cellIs" dxfId="3" priority="284" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="285" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="286" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="287" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33:E34">
+    <cfRule type="cellIs" dxfId="3" priority="710" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="711" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="712" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="713" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47:E48">
+    <cfRule type="cellIs" dxfId="3" priority="641" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="642" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="643" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="644" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63:E66">
+    <cfRule type="cellIs" dxfId="3" priority="561" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="562" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="563" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="564" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67:E74">
+    <cfRule type="cellIs" dxfId="3" priority="554" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="555" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="556" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="557" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E68:E74">
+    <cfRule type="cellIs" dxfId="3" priority="672" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="673" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="674" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="675" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E93:E95">
+    <cfRule type="cellIs" dxfId="3" priority="428" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="429" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="430" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="431" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E98:E99">
+    <cfRule type="cellIs" dxfId="3" priority="350" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="351" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="352" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="353" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E104:E105">
+    <cfRule type="cellIs" dxfId="3" priority="232" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="233" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="234" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="235" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E114:E118">
+    <cfRule type="cellIs" dxfId="3" priority="329" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="330" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="331" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="332" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E124:E125">
+    <cfRule type="cellIs" dxfId="3" priority="116" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="117" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="118" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="119" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E126:E137">
+    <cfRule type="cellIs" dxfId="3" priority="274" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="275" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="276" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="277" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E138:E144">
+    <cfRule type="cellIs" dxfId="3" priority="267" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="268" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="269" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="270" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J19:J22">
+    <cfRule type="cellIs" dxfId="0" priority="683" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="684" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="685" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23:J24">
+    <cfRule type="cellIs" dxfId="0" priority="631" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="632" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="633" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J29:J30">
+    <cfRule type="cellIs" dxfId="0" priority="183" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="184" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="185" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J33:J34">
+    <cfRule type="cellIs" dxfId="0" priority="714" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="715" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="716" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J63:J65">
+    <cfRule type="cellIs" dxfId="0" priority="568" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="569" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="570" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J67:J74">
+    <cfRule type="cellIs" dxfId="0" priority="558" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="559" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="560" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J68:J74">
+    <cfRule type="cellIs" dxfId="0" priority="676" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="677" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="678" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J93:J95">
+    <cfRule type="cellIs" dxfId="0" priority="432" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="433" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="434" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J104:J105">
+    <cfRule type="cellIs" dxfId="0" priority="236" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="237" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="238" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J114:J118">
+    <cfRule type="cellIs" dxfId="0" priority="333" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="334" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="335" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J138:J144">
+    <cfRule type="cellIs" dxfId="0" priority="271" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="272" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="273" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E30 E101:E102 E120:E122 E37:E45 E35">
+    <cfRule type="cellIs" dxfId="3" priority="703" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="704" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="705" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="706" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1:J30 J101:J102 J120:J122 J38:J45 J35">
+    <cfRule type="cellIs" dxfId="0" priority="707" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="708" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="709" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30 E149:E1048576">
+    <cfRule type="cellIs" dxfId="3" priority="385" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="386" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="387" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="388" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49 E54:E55 E51">
     <cfRule type="cellIs" dxfId="3" priority="634" operator="equal">
       <formula>"N"</formula>
     </cfRule>
@@ -9353,7 +11201,7 @@
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J46">
+  <conditionalFormatting sqref="J54:J55 J49:J51">
     <cfRule type="cellIs" dxfId="0" priority="638" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -9364,1772 +11212,78 @@
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J47">
-    <cfRule type="cellIs" dxfId="0" priority="199" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="200" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="201" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J48">
-    <cfRule type="cellIs" dxfId="0" priority="196" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="197" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="198" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="3" priority="162" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="163" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="164" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="165" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J50">
-    <cfRule type="cellIs" dxfId="0" priority="159" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="160" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="161" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="3" priority="512" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="513" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="514" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="515" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J51">
-    <cfRule type="cellIs" dxfId="0" priority="516" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="517" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="518" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="3" priority="571" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="572" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="573" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="574" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J52">
-    <cfRule type="cellIs" dxfId="0" priority="575" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="576" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="577" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="3" priority="484" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="485" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="486" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="487" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J53">
-    <cfRule type="cellIs" dxfId="0" priority="488" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="489" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="490" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="3" priority="606" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="607" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="608" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="609" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J56">
-    <cfRule type="cellIs" dxfId="0" priority="610" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="611" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="612" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="3" priority="599" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="600" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="601" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="602" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J57">
-    <cfRule type="cellIs" dxfId="0" priority="603" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="604" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="605" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="3" priority="592" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="593" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="594" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="595" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J58">
-    <cfRule type="cellIs" dxfId="0" priority="596" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="597" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="598" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="3" priority="585" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="586" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="587" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="588" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J59">
-    <cfRule type="cellIs" dxfId="0" priority="589" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="590" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="591" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="3" priority="564" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="565" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="566" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="567" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J60">
-    <cfRule type="cellIs" dxfId="0" priority="568" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="569" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="570" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J66">
-    <cfRule type="cellIs" dxfId="0" priority="551" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="552" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="553" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="3" priority="533" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="534" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="535" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="536" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J75">
-    <cfRule type="cellIs" dxfId="0" priority="537" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="538" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="539" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="3" priority="505" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="506" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="507" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="508" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J76">
-    <cfRule type="cellIs" dxfId="0" priority="509" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="510" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="511" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="3" priority="498" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="499" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="500" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="501" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J77">
-    <cfRule type="cellIs" dxfId="0" priority="502" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="503" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="504" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E78">
-    <cfRule type="cellIs" dxfId="3" priority="491" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="492" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="493" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="494" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J78">
-    <cfRule type="cellIs" dxfId="0" priority="495" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="496" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="497" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E79">
-    <cfRule type="cellIs" dxfId="3" priority="477" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="478" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="479" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="480" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J79">
-    <cfRule type="cellIs" dxfId="0" priority="166" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="167" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="168" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="3" priority="470" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="471" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="472" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="473" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J80">
-    <cfRule type="cellIs" dxfId="0" priority="474" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="475" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="476" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81">
-    <cfRule type="cellIs" dxfId="3" priority="95" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="96" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="97" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="98" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J81">
-    <cfRule type="cellIs" dxfId="0" priority="467" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="468" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="469" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E82">
-    <cfRule type="cellIs" dxfId="3" priority="123" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="124" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="125" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="126" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J82">
-    <cfRule type="cellIs" dxfId="0" priority="127" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="128" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="129" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="3" priority="52" operator="equal">
-      <formula>"N"</formula>
+  <conditionalFormatting sqref="E61:E62 E105 E112">
+    <cfRule type="cellIs" dxfId="3" priority="731" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="732" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="734" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="735" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J61:J62 J112 J105">
+    <cfRule type="cellIs" dxfId="0" priority="848" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="849" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="850" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J126 J128 J130 J132 J134 J136">
+    <cfRule type="cellIs" dxfId="0" priority="281" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="282" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="283" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J127 J129 J131 J133 J135 J137">
+    <cfRule type="cellIs" dxfId="0" priority="278" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="279" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="280" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C145 I145 L145">
+    <cfRule type="cellIs" dxfId="3" priority="51" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="52" operator="equal">
+      <formula>"Y"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="4" priority="53" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="54" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="55" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J83">
-    <cfRule type="cellIs" dxfId="0" priority="56" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="57" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="58" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="3" priority="393" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="394" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="395" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="396" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J84">
-    <cfRule type="cellIs" dxfId="0" priority="397" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="398" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="399" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="3" priority="280" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="281" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="282" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="283" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J85">
-    <cfRule type="cellIs" dxfId="0" priority="175" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="176" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="177" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="3" priority="239" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="240" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="241" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="242" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J86">
-    <cfRule type="cellIs" dxfId="0" priority="243" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="244" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="245" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="3" priority="456" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="457" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="458" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="459" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J87">
-    <cfRule type="cellIs" dxfId="0" priority="460" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="461" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="462" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="3" priority="449" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="450" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="451" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="452" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J88">
-    <cfRule type="cellIs" dxfId="0" priority="453" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="454" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="455" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="3" priority="442" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="443" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="444" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="445" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J89">
-    <cfRule type="cellIs" dxfId="0" priority="446" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="447" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="448" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="3" priority="435" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="436" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="437" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="438" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J90">
-    <cfRule type="cellIs" dxfId="0" priority="439" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="440" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="441" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="3" priority="428" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="429" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="430" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="431" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J91">
-    <cfRule type="cellIs" dxfId="0" priority="432" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="433" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="434" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="3" priority="421" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="422" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="423" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="424" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J92">
-    <cfRule type="cellIs" dxfId="0" priority="425" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="426" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="427" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="3" priority="519" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="520" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="521" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="522" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J94">
-    <cfRule type="cellIs" dxfId="0" priority="523" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="524" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="525" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E95">
-    <cfRule type="cellIs" dxfId="3" priority="526" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="527" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="528" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="529" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J95">
-    <cfRule type="cellIs" dxfId="0" priority="530" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="531" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="532" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="3" priority="407" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="408" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="409" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="410" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J96">
-    <cfRule type="cellIs" dxfId="0" priority="184" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="185" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="186" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="3" priority="386" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="387" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="388" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="389" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J97">
-    <cfRule type="cellIs" dxfId="0" priority="390" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="391" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="392" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J98">
-    <cfRule type="cellIs" dxfId="0" priority="340" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="341" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="342" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E99">
-    <cfRule type="cellIs" dxfId="3" priority="287" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="288" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="289" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="290" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J99">
-    <cfRule type="cellIs" dxfId="0" priority="178" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="179" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="180" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" dxfId="3" priority="88" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="89" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="90" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="91" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J100">
-    <cfRule type="cellIs" dxfId="0" priority="92" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="93" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="94" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="3" priority="350" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="351" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="352" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="353" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J102">
-    <cfRule type="cellIs" dxfId="0" priority="190" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="191" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="192" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E103">
-    <cfRule type="cellIs" dxfId="3" priority="225" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="226" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="227" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="228" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J103">
-    <cfRule type="cellIs" dxfId="0" priority="229" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="230" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="231" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E105">
-    <cfRule type="cellIs" dxfId="3" priority="232" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="233" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="234" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="235" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J105">
-    <cfRule type="cellIs" dxfId="0" priority="236" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="237" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="238" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E106">
-    <cfRule type="cellIs" dxfId="3" priority="246" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="247" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="248" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="249" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J106">
-    <cfRule type="cellIs" dxfId="0" priority="250" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="251" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="252" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E107">
-    <cfRule type="cellIs" dxfId="3" priority="364" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="365" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="366" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="367" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J107">
-    <cfRule type="cellIs" dxfId="0" priority="368" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="369" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="370" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E108">
-    <cfRule type="cellIs" dxfId="3" priority="301" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="302" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="303" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="304" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J108">
-    <cfRule type="cellIs" dxfId="0" priority="305" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="306" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="307" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E109">
-    <cfRule type="cellIs" dxfId="3" priority="343" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="344" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="345" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="346" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J109">
-    <cfRule type="cellIs" dxfId="0" priority="187" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="188" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="189" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E110">
-    <cfRule type="cellIs" dxfId="3" priority="357" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="358" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="359" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="360" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J110">
-    <cfRule type="cellIs" dxfId="0" priority="193" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="194" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="195" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="3" priority="378" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="379" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="381" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="382" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F111">
-    <cfRule type="cellIs" dxfId="4" priority="380" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J111">
-    <cfRule type="cellIs" dxfId="0" priority="383" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="384" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="385" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E113">
-    <cfRule type="cellIs" dxfId="3" priority="322" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="323" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="324" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="325" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J113">
-    <cfRule type="cellIs" dxfId="0" priority="326" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="327" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="328" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E119">
-    <cfRule type="cellIs" dxfId="3" priority="308" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="309" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="310" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="311" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J119">
-    <cfRule type="cellIs" dxfId="0" priority="312" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="313" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="314" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E123">
-    <cfRule type="cellIs" dxfId="3" priority="112" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="113" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="114" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="115" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J123">
-    <cfRule type="cellIs" dxfId="0" priority="99" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="100" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="101" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J124">
-    <cfRule type="cellIs" dxfId="0" priority="109" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="110" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="111" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J125">
-    <cfRule type="cellIs" dxfId="0" priority="106" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="107" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="108" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E145">
-    <cfRule type="cellIs" dxfId="3" priority="33" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="34" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="35" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="36" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J145">
-    <cfRule type="cellIs" dxfId="0" priority="30" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="31" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="32" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D146">
-    <cfRule type="cellIs" dxfId="3" priority="11" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="12" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="13" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="14" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E146">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I146">
-    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="9" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="10" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J146">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D142:D144">
-    <cfRule type="cellIs" dxfId="3" priority="48" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="49" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="50" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="51" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E19:E22">
-    <cfRule type="cellIs" dxfId="3" priority="665" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="666" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="667" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="668" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23:E30">
-    <cfRule type="cellIs" dxfId="3" priority="613" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="614" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="615" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="616" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E25:E30">
-    <cfRule type="cellIs" dxfId="3" priority="703" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="704" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="705" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="706" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28:E30">
-    <cfRule type="cellIs" dxfId="3" priority="270" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="271" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="272" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="273" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33:E34">
-    <cfRule type="cellIs" dxfId="3" priority="696" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="697" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="698" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="699" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47:E48">
-    <cfRule type="cellIs" dxfId="3" priority="627" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="628" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="629" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="630" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E63:E66">
-    <cfRule type="cellIs" dxfId="3" priority="547" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="548" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="549" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="550" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E67:E74">
-    <cfRule type="cellIs" dxfId="3" priority="540" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="541" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="542" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="543" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E68:E74">
-    <cfRule type="cellIs" dxfId="3" priority="658" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="659" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="660" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="661" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E93:E95">
-    <cfRule type="cellIs" dxfId="3" priority="414" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="415" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="416" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="417" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E98:E99">
-    <cfRule type="cellIs" dxfId="3" priority="336" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="337" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="338" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="339" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E104:E105">
-    <cfRule type="cellIs" dxfId="3" priority="218" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="219" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="220" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="221" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E114:E118">
-    <cfRule type="cellIs" dxfId="3" priority="315" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="316" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="317" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="318" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E124:E125">
-    <cfRule type="cellIs" dxfId="3" priority="102" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="103" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="104" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="105" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E126:E137">
-    <cfRule type="cellIs" dxfId="3" priority="260" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="261" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="262" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="263" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E138:E144">
-    <cfRule type="cellIs" dxfId="3" priority="253" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="254" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="255" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="256" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J19:J22">
-    <cfRule type="cellIs" dxfId="0" priority="669" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="670" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="671" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J23:J24">
-    <cfRule type="cellIs" dxfId="0" priority="617" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="618" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="619" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J29:J30">
-    <cfRule type="cellIs" dxfId="0" priority="169" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="170" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="171" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J33:J34">
-    <cfRule type="cellIs" dxfId="0" priority="700" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="701" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="702" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J63:J65">
-    <cfRule type="cellIs" dxfId="0" priority="554" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="555" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="556" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J67:J74">
-    <cfRule type="cellIs" dxfId="0" priority="544" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="545" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="546" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J68:J74">
-    <cfRule type="cellIs" dxfId="0" priority="662" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="663" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="664" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J93:J95">
-    <cfRule type="cellIs" dxfId="0" priority="418" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="419" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="420" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J104:J105">
-    <cfRule type="cellIs" dxfId="0" priority="222" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="223" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="224" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J114:J118">
-    <cfRule type="cellIs" dxfId="0" priority="319" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="320" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="321" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J138:J144">
-    <cfRule type="cellIs" dxfId="0" priority="257" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="258" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="259" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E30 E101:E102 E120:E122 E37:E45 E35">
-    <cfRule type="cellIs" dxfId="3" priority="689" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="690" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="691" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="692" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J30 J101:J102 J120:J122 J38:J45 J35">
-    <cfRule type="cellIs" dxfId="0" priority="693" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="694" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="695" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30 E147:E1048576">
-    <cfRule type="cellIs" dxfId="3" priority="371" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="372" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="373" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="374" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49 E54:E55 E51">
-    <cfRule type="cellIs" dxfId="3" priority="620" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="621" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="622" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="623" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J54:J55 J49:J51">
-    <cfRule type="cellIs" dxfId="0" priority="624" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="625" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="626" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61:E62 E105 E112">
-    <cfRule type="cellIs" dxfId="3" priority="717" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="718" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="720" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="721" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J61:J62 J112 J105">
-    <cfRule type="cellIs" dxfId="0" priority="834" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="835" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="836" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J126 J128 J130 J132 J134 J136">
-    <cfRule type="cellIs" dxfId="0" priority="267" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="268" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="269" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J127 J129 J131 J133 J135 J137">
-    <cfRule type="cellIs" dxfId="0" priority="264" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="265" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="266" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C145 I145 L145">
-    <cfRule type="cellIs" dxfId="3" priority="37" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="38" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="39" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="40" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="54" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B146 H146 K146">
-    <cfRule type="cellIs" dxfId="3" priority="15" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="16" operator="equal">
-      <formula>"Y"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="17" operator="equal">
-      <formula>"N"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="29" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="30" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="31" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="32" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11166,16 +11320,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>576</v>
+        <v>584</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>10</v>
@@ -11189,7 +11343,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>15</v>
@@ -11198,7 +11352,7 @@
         <v>22</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>26</v>
@@ -11210,16 +11364,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>582</v>
+        <v>590</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>26</v>
@@ -11231,16 +11385,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>262</v>
@@ -11252,16 +11406,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>586</v>
+        <v>594</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>587</v>
+        <v>595</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>588</v>
+        <v>596</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>262</v>
@@ -11273,16 +11427,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>262</v>
@@ -11294,16 +11448,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>26</v>
@@ -11315,16 +11469,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>26</v>
@@ -11336,16 +11490,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>26</v>
@@ -11357,16 +11511,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>26</v>
@@ -11378,13 +11532,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>603</v>
+        <v>611</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>24</v>
@@ -11393,7 +11547,7 @@
         <v>26</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>605</v>
+        <v>613</v>
       </c>
     </row>
     <row r="12" ht="49.5" spans="1:7">
@@ -11401,22 +11555,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>606</v>
+        <v>614</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>607</v>
+        <v>615</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>608</v>
+        <v>616</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>121</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>609</v>
+        <v>617</v>
       </c>
     </row>
     <row r="13" ht="16.5" spans="1:7">
@@ -11424,16 +11578,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>610</v>
+        <v>618</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>611</v>
+        <v>619</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>612</v>
+        <v>620</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>121</v>
@@ -11445,16 +11599,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>322</v>
@@ -11466,22 +11620,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>147</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
     </row>
     <row r="16" ht="82.5" spans="1:7">
@@ -11489,13 +11643,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>24</v>
@@ -11504,7 +11658,7 @@
         <v>147</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
     </row>
     <row r="17" ht="16.5" spans="1:7">
@@ -11512,16 +11666,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>20</v>
@@ -11533,16 +11687,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>628</v>
+        <v>636</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>20</v>
@@ -11554,16 +11708,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>629</v>
+        <v>637</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>630</v>
+        <v>638</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>631</v>
+        <v>639</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>20</v>
@@ -11575,16 +11729,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>633</v>
+        <v>641</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>631</v>
+        <v>639</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>20</v>
@@ -11596,22 +11750,22 @@
         <v>20</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>634</v>
+        <v>642</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>557</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>636</v>
+        <v>644</v>
       </c>
     </row>
     <row r="22" ht="16.5" spans="1:7">
@@ -11619,16 +11773,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>637</v>
+        <v>645</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>557</v>
@@ -11640,16 +11794,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>639</v>
+        <v>647</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>640</v>
+        <v>648</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>557</v>
@@ -11658,7 +11812,7 @@
     </row>
     <row r="24" ht="16.5" spans="1:7">
       <c r="A24" s="13" t="s">
-        <v>641</v>
+        <v>649</v>
       </c>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
